--- a/analysis/pre_gemini_data/Participant110/Task2_hard.xlsx
+++ b/analysis/pre_gemini_data/Participant110/Task2_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,305 +422,183 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Fixation based metrics</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>arg 2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>arg 3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arg 4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arg 5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>arg 6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>args 1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>assing 1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>assing 2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>assing 3</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>cond body 1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cond body 2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>cond body 3</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>conditionalstatement</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>conditionalstatment1</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>External call</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>External call 1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>literal 1</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>literal 2</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>literal 3</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>literal 4</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>literal 5</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>loop body</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>loop body 3</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>loop body2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>loop1</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>loop2</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>loop3</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>method call 1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>method call 2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>method call 3</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>method call 4</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>method call 5</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>method call 6</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>method call 7</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>method call 8</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>method call 9</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>methoddec</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>var name 1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>var name 2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>var name 3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>var name 4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>var name 5</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>var name 6</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>var name 7</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
+      <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
+      <c r="AH1" t="inlineStr"/>
+      <c r="AI1" t="inlineStr"/>
+      <c r="AJ1" t="inlineStr"/>
+      <c r="AK1" t="inlineStr"/>
+      <c r="AL1" t="inlineStr"/>
+      <c r="AM1" t="inlineStr"/>
+      <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
+      <c r="AQ1" t="inlineStr"/>
+      <c r="AR1" t="inlineStr"/>
+      <c r="AS1" t="inlineStr"/>
+      <c r="AT1" t="inlineStr"/>
+      <c r="AU1" t="inlineStr"/>
+      <c r="AV1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>23</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>24</v>
+      </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>42</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>38</v>
+      </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Revisit count</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -740,111 +606,111 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="K3" t="n">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="L3" t="n">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="Z3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>12</v>
       </c>
-      <c r="AI3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
       <c r="AK3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL3" t="n">
         <v>3</v>
       </c>
-      <c r="AL3" t="n">
-        <v>4</v>
-      </c>
       <c r="AM3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="n">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
@@ -852,119 +718,119 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>583.92</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>792.48</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1943.64</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>517.34</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>133.43</v>
       </c>
       <c r="J4" t="n">
-        <v>52</v>
+        <v>20420.12</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>87073.36</v>
       </c>
       <c r="L4" t="n">
-        <v>162</v>
+        <v>56140.44</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1076.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>1201.26</v>
       </c>
       <c r="O4" t="n">
-        <v>39</v>
+        <v>15492.23</v>
       </c>
       <c r="P4" t="n">
-        <v>37</v>
+        <v>9284.950000000001</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>297</v>
+        <v>72517.25</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>675.62</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>1735.2</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>1535.02</v>
       </c>
       <c r="Y4" t="n">
-        <v>299</v>
+        <v>85813.32000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>13998.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>265</v>
+        <v>77871.53</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>2677.86</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>16974.48</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>133.43</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>8184.13</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>6947.71</v>
       </c>
       <c r="AI4" t="n">
-        <v>33</v>
+        <v>13581.32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>5747.76</v>
       </c>
       <c r="AK4" t="n">
-        <v>5</v>
+        <v>2344.13</v>
       </c>
       <c r="AL4" t="n">
-        <v>5</v>
+        <v>734.17</v>
       </c>
       <c r="AM4" t="n">
-        <v>5</v>
+        <v>1201.26</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="n">
-        <v>326</v>
+        <v>49142.36</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="n">
-        <v>2</v>
+        <v>1217.92</v>
       </c>
       <c r="AS4" t="n">
-        <v>13</v>
+        <v>7040.59</v>
       </c>
       <c r="AT4" t="n">
-        <v>5</v>
+        <v>1802.11</v>
       </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
@@ -972,119 +838,119 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1768.94</v>
+        <v>0.25</v>
       </c>
       <c r="D5" t="n">
-        <v>792.48</v>
+        <v>0.34</v>
       </c>
       <c r="E5" t="n">
-        <v>5016.91</v>
+        <v>0.84</v>
       </c>
       <c r="F5" t="n">
-        <v>517.34</v>
+        <v>0.22</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>133.43</v>
+        <v>0.06</v>
       </c>
       <c r="J5" t="n">
-        <v>20756.38</v>
+        <v>8.82</v>
       </c>
       <c r="K5" t="n">
-        <v>113469.94</v>
+        <v>37.63</v>
       </c>
       <c r="L5" t="n">
-        <v>61529.9</v>
+        <v>24.26</v>
       </c>
       <c r="M5" t="n">
-        <v>2141.16</v>
+        <v>0.47</v>
       </c>
       <c r="N5" t="n">
-        <v>2899.26</v>
+        <v>0.52</v>
       </c>
       <c r="O5" t="n">
-        <v>15940.59</v>
+        <v>6.69</v>
       </c>
       <c r="P5" t="n">
-        <v>12842.98</v>
+        <v>4.01</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>71443.78999999999</v>
+        <v>26.9</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>675.62</v>
+        <v>0.29</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>1735.2</v>
+        <v>0.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1775.31</v>
+        <v>0.66</v>
       </c>
       <c r="Y5" t="n">
-        <v>109664.41</v>
+        <v>37.08</v>
       </c>
       <c r="Z5" t="n">
-        <v>17153.66</v>
+        <v>6.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>93056.5</v>
+        <v>33.65</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>2677.86</v>
+        <v>1.16</v>
       </c>
       <c r="AD5" t="n">
-        <v>18159.51</v>
+        <v>7.35</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>133.43</v>
+        <v>0.06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8520.4</v>
+        <v>3.54</v>
       </c>
       <c r="AH5" t="n">
-        <v>7283.98</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>16304.07</v>
+        <v>5.87</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7567.99</v>
+        <v>2.48</v>
       </c>
       <c r="AK5" t="n">
-        <v>2344.13</v>
+        <v>1.01</v>
       </c>
       <c r="AL5" t="n">
-        <v>1278.82</v>
+        <v>0.32</v>
       </c>
       <c r="AM5" t="n">
-        <v>2899.26</v>
+        <v>0.52</v>
       </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="n">
-        <v>122370.02</v>
+        <v>21.24</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="n">
-        <v>1217.92</v>
+        <v>0.53</v>
       </c>
       <c r="AS5" t="n">
-        <v>7040.59</v>
+        <v>3.04</v>
       </c>
       <c r="AT5" t="n">
-        <v>1802.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1092,119 +958,119 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.35</v>
+        <v>291.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>264.16</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>971.8200000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>258.67</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.03</v>
+        <v>133.43</v>
       </c>
       <c r="J6" t="n">
-        <v>4.15</v>
+        <v>400.39</v>
       </c>
       <c r="K6" t="n">
-        <v>23.3</v>
+        <v>352.52</v>
       </c>
       <c r="L6" t="n">
-        <v>12.29</v>
+        <v>381.91</v>
       </c>
       <c r="M6" t="n">
-        <v>0.43</v>
+        <v>538.0700000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.58</v>
+        <v>1201.26</v>
       </c>
       <c r="O6" t="n">
-        <v>3.18</v>
+        <v>418.71</v>
       </c>
       <c r="P6" t="n">
-        <v>2.57</v>
+        <v>343.89</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>27.96</v>
+        <v>240.92</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.13</v>
+        <v>225.21</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.35</v>
+        <v>433.8</v>
       </c>
       <c r="X6" t="n">
-        <v>0.35</v>
+        <v>307</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.91</v>
+        <v>359.05</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.43</v>
+        <v>482.71</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.59</v>
+        <v>358.85</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.54</v>
+        <v>382.55</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.63</v>
+        <v>435.24</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0.03</v>
+        <v>133.43</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.7</v>
+        <v>481.42</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.46</v>
+        <v>408.69</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.26</v>
+        <v>503.01</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.51</v>
+        <v>478.98</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.47</v>
+        <v>468.83</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.26</v>
+        <v>244.72</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.58</v>
+        <v>1201.26</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>25.13</v>
+        <v>406.14</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>0.24</v>
+        <v>608.96</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.41</v>
+        <v>541.58</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.36</v>
+        <v>360.42</v>
       </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
@@ -1212,21 +1078,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>First fixation duration (ms)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>589.65</v>
+        <v>450.42</v>
       </c>
       <c r="D7" t="n">
-        <v>264.16</v>
+        <v>200.19</v>
       </c>
       <c r="E7" t="n">
-        <v>627.11</v>
+        <v>742.38</v>
       </c>
       <c r="F7" t="n">
-        <v>258.67</v>
+        <v>333.73</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -1234,218 +1100,148 @@
         <v>133.43</v>
       </c>
       <c r="J7" t="n">
-        <v>399.16</v>
+        <v>282.22</v>
       </c>
       <c r="K7" t="n">
-        <v>359.08</v>
+        <v>367.08</v>
       </c>
       <c r="L7" t="n">
-        <v>379.81</v>
+        <v>200.26</v>
       </c>
       <c r="M7" t="n">
-        <v>535.29</v>
+        <v>533.9400000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>579.85</v>
+        <v>1201.26</v>
       </c>
       <c r="O7" t="n">
-        <v>408.73</v>
+        <v>100.13</v>
       </c>
       <c r="P7" t="n">
-        <v>347.11</v>
+        <v>183.58</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>240.55</v>
+        <v>233.56</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>225.21</v>
+        <v>141.78</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>433.8</v>
+        <v>133.44</v>
       </c>
       <c r="X7" t="n">
-        <v>253.62</v>
+        <v>333.69</v>
       </c>
       <c r="Y7" t="n">
-        <v>366.77</v>
+        <v>367.08</v>
       </c>
       <c r="Z7" t="n">
-        <v>476.49</v>
+        <v>133.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>351.16</v>
+        <v>200.26</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>382.55</v>
+        <v>383.76</v>
       </c>
       <c r="AD7" t="n">
-        <v>453.99</v>
+        <v>200.26</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
         <v>133.43</v>
       </c>
       <c r="AG7" t="n">
-        <v>473.36</v>
+        <v>100.13</v>
       </c>
       <c r="AH7" t="n">
-        <v>404.67</v>
+        <v>282.22</v>
       </c>
       <c r="AI7" t="n">
-        <v>494.06</v>
+        <v>133.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>473</v>
+        <v>467.18</v>
       </c>
       <c r="AK7" t="n">
-        <v>468.83</v>
+        <v>600.62</v>
       </c>
       <c r="AL7" t="n">
-        <v>255.76</v>
+        <v>333.73</v>
       </c>
       <c r="AM7" t="n">
-        <v>579.85</v>
+        <v>1201.26</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>375.37</v>
+        <v>500.5</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="n">
-        <v>608.96</v>
+        <v>900.92</v>
       </c>
       <c r="AS7" t="n">
-        <v>541.58</v>
+        <v>383.56</v>
       </c>
       <c r="AT7" t="n">
-        <v>360.42</v>
+        <v>917.62</v>
       </c>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>450.42</v>
-      </c>
-      <c r="D8" t="n">
-        <v>200.19</v>
-      </c>
-      <c r="E8" t="n">
-        <v>742.38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>333.73</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>133.43</v>
-      </c>
-      <c r="J8" t="n">
-        <v>282.22</v>
-      </c>
-      <c r="K8" t="n">
-        <v>367.08</v>
-      </c>
-      <c r="L8" t="n">
-        <v>200.26</v>
-      </c>
-      <c r="M8" t="n">
-        <v>533.9400000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1201.26</v>
-      </c>
-      <c r="O8" t="n">
-        <v>100.13</v>
-      </c>
-      <c r="P8" t="n">
-        <v>183.58</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>233.56</v>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>141.78</v>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>133.44</v>
-      </c>
-      <c r="X8" t="n">
-        <v>333.69</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>367.08</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>200.26</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
-        <v>383.76</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>200.26</v>
-      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="n">
-        <v>133.43</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>100.13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>282.22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>467.18</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>600.62</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>333.73</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1201.26</v>
-      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="n">
-        <v>500.5</v>
-      </c>
+      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="n">
-        <v>900.92</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>383.56</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>917.62</v>
-      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
     </row>
@@ -1499,156 +1295,6 @@
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
